--- a/Common Git Tasks.xlsx
+++ b/Common Git Tasks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Harold\Documents\Scala\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\sts-workspace\WordPress\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -216,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,7 +239,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -305,16 +312,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,22 +636,22 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="47.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="12" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>58</v>
       </c>
@@ -653,250 +660,284 @@
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>59</v>
       </c>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="C35" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
